--- a/HEMSv1.1 Configs/Version control.xlsx
+++ b/HEMSv1.1 Configs/Version control.xlsx
@@ -9,19 +9,16 @@
   <sheets>
     <sheet name="Changes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="36">
   <si>
     <t>Powerloss/Restore logic for all assets</t>
   </si>
   <si>
-    <t>Put additional alert of Asset shutdown alert</t>
-  </si>
-  <si>
     <t>Make sure the features doc has ignition dependancy on RPM by default</t>
   </si>
   <si>
@@ -31,9 +28,6 @@
     <t>Recheck fault detection counter in feature doc</t>
   </si>
   <si>
-    <t>Recheck fualt detection register mapping in feature doc</t>
-  </si>
-  <si>
     <t>Add sec timer for all increment filter</t>
   </si>
   <si>
@@ -47,6 +41,87 @@
   </si>
   <si>
     <t>n/a</t>
+  </si>
+  <si>
+    <t>Pumps</t>
+  </si>
+  <si>
+    <t>Sleep mode end event</t>
+  </si>
+  <si>
+    <t>change fault register from state to event</t>
+  </si>
+  <si>
+    <t>Time inactive filter in IDLS</t>
+  </si>
+  <si>
+    <t>Increase distance from 20 to 50</t>
+  </si>
+  <si>
+    <t>Add GPS validity on geofence</t>
+  </si>
+  <si>
+    <t>Remove geofences</t>
+  </si>
+  <si>
+    <t>Motion based IDLE</t>
+  </si>
+  <si>
+    <t>Access platforms error code will be always FFFFFF</t>
+  </si>
+  <si>
+    <t>Recheck fualt detection register mapping</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>DAP</t>
+  </si>
+  <si>
+    <t>EAP</t>
+  </si>
+  <si>
+    <t>Machinery</t>
+  </si>
+  <si>
+    <t>no alarm lines</t>
+  </si>
+  <si>
+    <t>Generator</t>
+  </si>
+  <si>
+    <t>Add filter on asset shutdown to only send it once</t>
+  </si>
+  <si>
+    <t>FMI form state to event</t>
+  </si>
+  <si>
+    <t>Air Compressor</t>
+  </si>
+  <si>
+    <t>Timer inactive filter for Remote start and stop</t>
+  </si>
+  <si>
+    <t>Operational time</t>
+  </si>
+  <si>
+    <t>Asset features to have macros and customer specific details</t>
+  </si>
+  <si>
+    <t>Put additional filter of Asset shutdown alert</t>
+  </si>
+  <si>
+    <t>Update the changes on version</t>
+  </si>
+  <si>
+    <t>Github update</t>
+  </si>
+  <si>
+    <t>Battery charging start/end after powerup</t>
+  </si>
+  <si>
+    <t>Remove Power disconnect</t>
   </si>
 </sst>
 </file>
@@ -82,8 +157,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,92 +466,700 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="65.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/HEMSv1.1 Configs/Version control.xlsx
+++ b/HEMSv1.1 Configs/Version control.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="39">
   <si>
     <t>Powerloss/Restore logic for all assets</t>
   </si>
@@ -122,6 +122,15 @@
   </si>
   <si>
     <t>Remove Power disconnect</t>
+  </si>
+  <si>
+    <t>remove 1 second timer stop from Ignition logic</t>
+  </si>
+  <si>
+    <t>No tag in when immobilizer activated, remove timer7 at tag</t>
+  </si>
+  <si>
+    <t>add timer6 along with Tag in</t>
   </si>
 </sst>
 </file>
@@ -466,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,24 +1121,8 @@
       <c r="B25" s="1">
         <v>1</v>
       </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1">
-        <v>1</v>
-      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -1159,6 +1152,84 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
     </row>

--- a/HEMSv1.1 Configs/Version control.xlsx
+++ b/HEMSv1.1 Configs/Version control.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Changes" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="140">
   <si>
     <t>Powerloss/Restore logic for all assets</t>
   </si>
@@ -131,6 +132,309 @@
   </si>
   <si>
     <t>add timer6 along with Tag in</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL0</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL1</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL2</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL3</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL4</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL5</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL6</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL7</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL8</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL9</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL10</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL11</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL12</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL13</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL14</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL15</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL16</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL17</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL18</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL19</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL20</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL21</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL22</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL23</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL24</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL25</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL26</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL27</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL28</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL29</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL30</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL31</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL32</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL33</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL34</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL35</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL36</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL37</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL38</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL39</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL40</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL41</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL42</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL43</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL44</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL45</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL46</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL47</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL48</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL49</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL50</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL51</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL52</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL53</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL54</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL55</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL56</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL57</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL58</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL59</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL60</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL61</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL62</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL63</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL64</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL65</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL66</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL67</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL68</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL69</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL70</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL71</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL72</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL73</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL74</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL75</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL76</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL77</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL78</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL79</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL80</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL81</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL82</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL83</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL84</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL85</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL86</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL87</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL88</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL89</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL90</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL91</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL92</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL93</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL94</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL95</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL96</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL97</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL98</t>
+  </si>
+  <si>
+    <t>$PFAL,CNF.Set,AL99</t>
+  </si>
+  <si>
+    <t>Add 1 second timer protection</t>
   </si>
 </sst>
 </file>
@@ -475,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,7 +1534,532 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A100"/>
+  <sheetViews>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/HEMSv1.1 Configs/Version control.xlsx
+++ b/HEMSv1.1 Configs/Version control.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="139">
   <si>
     <t>Powerloss/Restore logic for all assets</t>
   </si>
@@ -432,9 +432,6 @@
   </si>
   <si>
     <t>$PFAL,CNF.Set,AL99</t>
-  </si>
-  <si>
-    <t>Add 1 second timer protection</t>
   </si>
 </sst>
 </file>
@@ -779,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,13 +1531,6 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
     </row>

--- a/HEMSv1.1 Configs/Version control.xlsx
+++ b/HEMSv1.1 Configs/Version control.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="141">
   <si>
     <t>Powerloss/Restore logic for all assets</t>
   </si>
@@ -432,6 +432,12 @@
   </si>
   <si>
     <t>$PFAL,CNF.Set,AL99</t>
+  </si>
+  <si>
+    <t>Add 1 second timer protection in case it stops</t>
+  </si>
+  <si>
+    <t>Github wiki update</t>
   </si>
 </sst>
 </file>
@@ -776,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,8 +1428,24 @@
       <c r="B25" s="1">
         <v>1</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -1531,6 +1553,39 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
     </row>

--- a/HEMSv1.1 Configs/Version control.xlsx
+++ b/HEMSv1.1 Configs/Version control.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="152">
   <si>
     <t>Powerloss/Restore logic for all assets</t>
   </si>
@@ -438,6 +438,39 @@
   </si>
   <si>
     <t>Github wiki update</t>
+  </si>
+  <si>
+    <t>Change the tagout logic to prevent multiple tagout</t>
+  </si>
+  <si>
+    <t>Add erase backup on all scripts during the script load start</t>
+  </si>
+  <si>
+    <t>Change overspeed thresholds</t>
+  </si>
+  <si>
+    <t>Change overspeed filter</t>
+  </si>
+  <si>
+    <t>Add timer6 with tag logics to immobilize the asset</t>
+  </si>
+  <si>
+    <t>remove IO2 dependency on tagout</t>
+  </si>
+  <si>
+    <t>remove tagout in case of analog installation</t>
+  </si>
+  <si>
+    <t>remove timer6 from boot</t>
+  </si>
+  <si>
+    <t>Change tagout timer at boot to 1 second</t>
+  </si>
+  <si>
+    <t>Change overspeed thresholds on features doc</t>
+  </si>
+  <si>
+    <t>Change overspeed filter on features doc</t>
   </si>
 </sst>
 </file>
@@ -453,12 +486,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -473,9 +512,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -782,10 +828,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,27 +1472,13 @@
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1">
-        <v>1</v>
-      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -1579,18 +1612,249 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/HEMSv1.1 Configs/Version control.xlsx
+++ b/HEMSv1.1 Configs/Version control.xlsx
@@ -831,8 +831,8 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,7 +1629,9 @@
       <c r="F31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="2"/>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
       <c r="H31" s="1" t="s">
         <v>8</v>
       </c>
@@ -1645,7 +1647,9 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1713,7 +1717,9 @@
       <c r="F35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="2"/>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1727,7 +1733,9 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1741,7 +1749,9 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1761,7 +1771,9 @@
       <c r="F38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="2"/>
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1781,7 +1793,9 @@
       <c r="F39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="2"/>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1792,7 +1806,9 @@
       <c r="C40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="4"/>
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
       <c r="E40" s="2" t="s">
         <v>8</v>
       </c>
@@ -1814,7 +1830,9 @@
       <c r="C41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="4"/>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
       <c r="E41" s="2" t="s">
         <v>8</v>
       </c>
@@ -1846,10 +1864,14 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="2"/>
+      <c r="G43" s="4">
+        <v>1</v>
+      </c>
       <c r="H43" s="2"/>
     </row>
   </sheetData>

--- a/HEMSv1.1 Configs/Version control.xlsx
+++ b/HEMSv1.1 Configs/Version control.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="152">
   <si>
     <t>Powerloss/Restore logic for all assets</t>
   </si>
@@ -831,8 +831,8 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,10 +1474,14 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1640,7 +1644,9 @@
       <c r="A32" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
       <c r="C32" s="2"/>
       <c r="D32" s="4">
         <v>1</v>
@@ -1656,23 +1662,25 @@
       <c r="A33" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2" t="s">
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="2" t="s">
+      <c r="E33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1680,23 +1688,25 @@
       <c r="A34" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2" t="s">
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" s="2" t="s">
+      <c r="E34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1704,17 +1714,19 @@
       <c r="A35" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2" t="s">
+      <c r="B35" s="4">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="E35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G35" s="4">
@@ -1726,7 +1738,9 @@
       <c r="A36" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="4">
+        <v>1</v>
+      </c>
       <c r="C36" s="2"/>
       <c r="D36" s="4">
         <v>1</v>
@@ -1742,7 +1756,9 @@
       <c r="A37" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="B37" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="C37" s="2"/>
       <c r="D37" s="4">
         <v>1</v>
@@ -1758,17 +1774,19 @@
       <c r="A38" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2" t="s">
+      <c r="B38" s="4">
+        <v>1</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="2" t="s">
+      <c r="E38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G38" s="4">
@@ -1780,17 +1798,19 @@
       <c r="A39" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2" t="s">
+      <c r="B39" s="4">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="2" t="s">
+      <c r="E39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G39" s="4">
@@ -1802,23 +1822,25 @@
       <c r="A40" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2" t="s">
+      <c r="B40" s="4">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H40" s="2" t="s">
+      <c r="E40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1826,23 +1848,25 @@
       <c r="A41" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2" t="s">
+      <c r="B41" s="4">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="4">
         <v>1</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="2" t="s">
+      <c r="E41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>8</v>
       </c>
     </row>

--- a/HEMSv1.1 Configs/Version control.xlsx
+++ b/HEMSv1.1 Configs/Version control.xlsx
@@ -831,8 +831,8 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1472,7 +1472,9 @@
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="4">
         <v>1</v>
@@ -1886,7 +1888,9 @@
       <c r="A43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="2"/>
+      <c r="B43" s="4">
+        <v>1</v>
+      </c>
       <c r="C43" s="2"/>
       <c r="D43" s="4">
         <v>1</v>

--- a/HEMSv1.1 Configs/Version control.xlsx
+++ b/HEMSv1.1 Configs/Version control.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="152">
   <si>
     <t>Powerloss/Restore logic for all assets</t>
   </si>
@@ -831,8 +831,8 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,11 +1475,15 @@
       <c r="B25" s="4">
         <v>1</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
       <c r="D25" s="4">
         <v>1</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="4">
         <v>1</v>
@@ -1649,11 +1653,15 @@
       <c r="B32" s="4">
         <v>1</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
       <c r="D32" s="4">
         <v>1</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="4">
         <v>1</v>
@@ -1743,12 +1751,18 @@
       <c r="B36" s="4">
         <v>1</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D36" s="4">
         <v>1</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="E36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="G36" s="4">
         <v>1</v>
       </c>
@@ -1761,12 +1775,18 @@
       <c r="B37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D37" s="4">
         <v>1</v>
       </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="E37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="G37" s="4">
         <v>1</v>
       </c>
@@ -1891,11 +1911,15 @@
       <c r="B43" s="4">
         <v>1</v>
       </c>
-      <c r="C43" s="2"/>
+      <c r="C43" s="4">
+        <v>1</v>
+      </c>
       <c r="D43" s="4">
         <v>1</v>
       </c>
-      <c r="E43" s="3"/>
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
       <c r="F43" s="3"/>
       <c r="G43" s="4">
         <v>1</v>

--- a/HEMSv1.1 Configs/Version control.xlsx
+++ b/HEMSv1.1 Configs/Version control.xlsx
@@ -831,8 +831,8 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1662,7 +1662,9 @@
       <c r="E32" s="4">
         <v>1</v>
       </c>
-      <c r="F32" s="2"/>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
       <c r="G32" s="4">
         <v>1</v>
       </c>
